--- a/health_parent/health_backend/src/main/webapp/template/ordersetting_template.xlsx
+++ b/health_parent/health_backend/src/main/webapp/template/ordersetting_template.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2115883-3C5B-433C-AF94-81EB16A8255F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="6540" yWindow="1215" windowWidth="21600" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="预约设置模板" sheetId="1" r:id="rId1"/>
@@ -16,19 +17,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>日期</t>
+    <t>日期  ( 格式：2022/6/5）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可预约数量</t>
+    <t>可预约数量（格式：正整数）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,7 +98,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -107,17 +108,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -159,7 +171,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -191,9 +203,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,6 +255,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -400,25 +448,817 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="1" max="1" width="41" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>44708</v>
+      </c>
+      <c r="B2" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>44709</v>
+      </c>
+      <c r="B3" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>44710</v>
+      </c>
+      <c r="B4" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>44711</v>
+      </c>
+      <c r="B5" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>44712</v>
+      </c>
+      <c r="B6" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>44713</v>
+      </c>
+      <c r="B7" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>44714</v>
+      </c>
+      <c r="B8" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>44715</v>
+      </c>
+      <c r="B9" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>44716</v>
+      </c>
+      <c r="B10" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>44717</v>
+      </c>
+      <c r="B11" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>44718</v>
+      </c>
+      <c r="B12" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>44719</v>
+      </c>
+      <c r="B13" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>44720</v>
+      </c>
+      <c r="B14" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>44721</v>
+      </c>
+      <c r="B15" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>44722</v>
+      </c>
+      <c r="B16" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>44723</v>
+      </c>
+      <c r="B17" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>44724</v>
+      </c>
+      <c r="B18" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>44725</v>
+      </c>
+      <c r="B19" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>44726</v>
+      </c>
+      <c r="B20" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>44727</v>
+      </c>
+      <c r="B21" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>44728</v>
+      </c>
+      <c r="B22" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>44729</v>
+      </c>
+      <c r="B23" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>44730</v>
+      </c>
+      <c r="B24" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>44731</v>
+      </c>
+      <c r="B25" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>44732</v>
+      </c>
+      <c r="B26" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>44733</v>
+      </c>
+      <c r="B27" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>44734</v>
+      </c>
+      <c r="B28" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>44735</v>
+      </c>
+      <c r="B29" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="3">
+        <v>44736</v>
+      </c>
+      <c r="B30" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="3">
+        <v>44737</v>
+      </c>
+      <c r="B31" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="3">
+        <v>44738</v>
+      </c>
+      <c r="B32" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="3">
+        <v>44739</v>
+      </c>
+      <c r="B33" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="3">
+        <v>44740</v>
+      </c>
+      <c r="B34" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="3">
+        <v>44741</v>
+      </c>
+      <c r="B35" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="3">
+        <v>44742</v>
+      </c>
+      <c r="B36" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="3">
+        <v>44743</v>
+      </c>
+      <c r="B37" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="3">
+        <v>44744</v>
+      </c>
+      <c r="B38" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="3">
+        <v>44745</v>
+      </c>
+      <c r="B39" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="3">
+        <v>44746</v>
+      </c>
+      <c r="B40" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="3">
+        <v>44747</v>
+      </c>
+      <c r="B41" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="3">
+        <v>44748</v>
+      </c>
+      <c r="B42" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="3">
+        <v>44749</v>
+      </c>
+      <c r="B43" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="3">
+        <v>44750</v>
+      </c>
+      <c r="B44" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="3">
+        <v>44751</v>
+      </c>
+      <c r="B45" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="3">
+        <v>44752</v>
+      </c>
+      <c r="B46" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="3">
+        <v>44753</v>
+      </c>
+      <c r="B47" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="3">
+        <v>44754</v>
+      </c>
+      <c r="B48" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="3">
+        <v>44755</v>
+      </c>
+      <c r="B49" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="3">
+        <v>44756</v>
+      </c>
+      <c r="B50" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="3">
+        <v>44757</v>
+      </c>
+      <c r="B51" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="3">
+        <v>44758</v>
+      </c>
+      <c r="B52" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="3">
+        <v>44759</v>
+      </c>
+      <c r="B53" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="3">
+        <v>44760</v>
+      </c>
+      <c r="B54" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="3">
+        <v>44761</v>
+      </c>
+      <c r="B55" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="3">
+        <v>44762</v>
+      </c>
+      <c r="B56" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="3">
+        <v>44763</v>
+      </c>
+      <c r="B57" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="3">
+        <v>44764</v>
+      </c>
+      <c r="B58" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="3">
+        <v>44765</v>
+      </c>
+      <c r="B59" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="3">
+        <v>44766</v>
+      </c>
+      <c r="B60" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" s="3">
+        <v>44767</v>
+      </c>
+      <c r="B61" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" s="3">
+        <v>44768</v>
+      </c>
+      <c r="B62" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="3">
+        <v>44769</v>
+      </c>
+      <c r="B63" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" s="3">
+        <v>44770</v>
+      </c>
+      <c r="B64" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" s="3">
+        <v>44771</v>
+      </c>
+      <c r="B65" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" s="3">
+        <v>44772</v>
+      </c>
+      <c r="B66" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" s="3">
+        <v>44773</v>
+      </c>
+      <c r="B67" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" s="3">
+        <v>44774</v>
+      </c>
+      <c r="B68" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" s="3">
+        <v>44775</v>
+      </c>
+      <c r="B69" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" s="3">
+        <v>44776</v>
+      </c>
+      <c r="B70" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" s="3">
+        <v>44777</v>
+      </c>
+      <c r="B71" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" s="3">
+        <v>44778</v>
+      </c>
+      <c r="B72" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" s="3">
+        <v>44779</v>
+      </c>
+      <c r="B73" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" s="3">
+        <v>44780</v>
+      </c>
+      <c r="B74" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" s="3">
+        <v>44781</v>
+      </c>
+      <c r="B75" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" s="3">
+        <v>44782</v>
+      </c>
+      <c r="B76" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" s="3">
+        <v>44783</v>
+      </c>
+      <c r="B77" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" s="3">
+        <v>44784</v>
+      </c>
+      <c r="B78" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" s="3">
+        <v>44785</v>
+      </c>
+      <c r="B79" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" s="3">
+        <v>44786</v>
+      </c>
+      <c r="B80" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" s="3">
+        <v>44787</v>
+      </c>
+      <c r="B81" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" s="3">
+        <v>44788</v>
+      </c>
+      <c r="B82" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" s="3">
+        <v>44789</v>
+      </c>
+      <c r="B83" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" s="3">
+        <v>44790</v>
+      </c>
+      <c r="B84" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" s="3">
+        <v>44791</v>
+      </c>
+      <c r="B85" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" s="3">
+        <v>44792</v>
+      </c>
+      <c r="B86" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" s="3">
+        <v>44793</v>
+      </c>
+      <c r="B87" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" s="3">
+        <v>44794</v>
+      </c>
+      <c r="B88" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" s="3">
+        <v>44795</v>
+      </c>
+      <c r="B89" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" s="3">
+        <v>44796</v>
+      </c>
+      <c r="B90" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91" s="3">
+        <v>44797</v>
+      </c>
+      <c r="B91" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92" s="3">
+        <v>44798</v>
+      </c>
+      <c r="B92" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A93" s="3">
+        <v>44799</v>
+      </c>
+      <c r="B93" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94" s="3">
+        <v>44800</v>
+      </c>
+      <c r="B94" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A95" s="3">
+        <v>44801</v>
+      </c>
+      <c r="B95" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A96" s="3">
+        <v>44802</v>
+      </c>
+      <c r="B96" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97" s="3">
+        <v>44803</v>
+      </c>
+      <c r="B97" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98" s="3">
+        <v>44804</v>
+      </c>
+      <c r="B98" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99" s="3">
+        <v>44805</v>
+      </c>
+      <c r="B99" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A100" s="3">
+        <v>44806</v>
+      </c>
+      <c r="B100" s="1">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
